--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,12 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['24', '78']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -494,6 +500,12 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['38', '70', '89']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1607,7 +1619,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1732,7 +1744,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1938,7 +1950,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2019,7 +2031,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2225,7 +2237,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2556,7 +2568,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2762,7 +2774,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3046,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3380,7 +3392,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3461,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3586,7 +3598,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3792,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4204,7 +4216,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4488,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4616,7 +4628,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4822,7 +4834,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4900,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5028,7 +5040,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5234,7 +5246,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5440,7 +5452,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6058,7 +6070,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6264,7 +6276,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6470,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6548,10 +6560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6676,7 +6688,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6963,7 +6975,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -7372,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7500,7 +7512,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7706,7 +7718,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7912,7 +7924,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8530,7 +8542,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8611,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -8736,7 +8748,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9148,7 +9160,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9229,7 +9241,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9354,7 +9366,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9432,7 +9444,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42">
         <v>1.57</v>
@@ -9972,7 +9984,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10050,7 +10062,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.71</v>
@@ -10384,7 +10396,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10590,7 +10602,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10796,7 +10808,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10874,7 +10886,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
         <v>1.71</v>
@@ -11002,7 +11014,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11286,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11414,7 +11426,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11620,7 +11632,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11701,7 +11713,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -11826,7 +11838,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12032,7 +12044,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12444,7 +12456,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12650,7 +12662,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12731,7 +12743,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13062,7 +13074,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13140,7 +13152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13346,7 +13358,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13474,7 +13486,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13555,7 +13567,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -13680,7 +13692,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13886,7 +13898,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14092,7 +14104,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14298,7 +14310,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14455,6 +14467,418 @@
       </c>
       <c r="BP66">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7451022</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q67">
+        <v>2.75</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>4.5</v>
+      </c>
+      <c r="T67">
+        <v>1.44</v>
+      </c>
+      <c r="U67">
+        <v>2.63</v>
+      </c>
+      <c r="V67">
+        <v>3.25</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>9</v>
+      </c>
+      <c r="Y67">
+        <v>1.07</v>
+      </c>
+      <c r="Z67">
+        <v>1.95</v>
+      </c>
+      <c r="AA67">
+        <v>3.3</v>
+      </c>
+      <c r="AB67">
+        <v>3.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>3.1</v>
+      </c>
+      <c r="AG67">
+        <v>2.2</v>
+      </c>
+      <c r="AH67">
+        <v>1.65</v>
+      </c>
+      <c r="AI67">
+        <v>2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.73</v>
+      </c>
+      <c r="AK67">
+        <v>1.3</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.7</v>
+      </c>
+      <c r="AN67">
+        <v>1.33</v>
+      </c>
+      <c r="AO67">
+        <v>0.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.14</v>
+      </c>
+      <c r="AQ67">
+        <v>0.86</v>
+      </c>
+      <c r="AR67">
+        <v>1.18</v>
+      </c>
+      <c r="AS67">
+        <v>1.5</v>
+      </c>
+      <c r="AT67">
+        <v>2.68</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>1</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>17</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>8</v>
+      </c>
+      <c r="BD67">
+        <v>1.69</v>
+      </c>
+      <c r="BE67">
+        <v>7.7</v>
+      </c>
+      <c r="BF67">
+        <v>2.71</v>
+      </c>
+      <c r="BG67">
+        <v>1.43</v>
+      </c>
+      <c r="BH67">
+        <v>2.6</v>
+      </c>
+      <c r="BI67">
+        <v>1.75</v>
+      </c>
+      <c r="BJ67">
+        <v>1.96</v>
+      </c>
+      <c r="BK67">
+        <v>2.24</v>
+      </c>
+      <c r="BL67">
+        <v>1.57</v>
+      </c>
+      <c r="BM67">
+        <v>2.98</v>
+      </c>
+      <c r="BN67">
+        <v>1.34</v>
+      </c>
+      <c r="BO67">
+        <v>4.35</v>
+      </c>
+      <c r="BP67">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7451023</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>125</v>
+      </c>
+      <c r="P68" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q68">
+        <v>2.75</v>
+      </c>
+      <c r="R68">
+        <v>2.05</v>
+      </c>
+      <c r="S68">
+        <v>4.33</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>3.4</v>
+      </c>
+      <c r="W68">
+        <v>1.3</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68">
+        <v>1.06</v>
+      </c>
+      <c r="Z68">
+        <v>1.95</v>
+      </c>
+      <c r="AA68">
+        <v>3.4</v>
+      </c>
+      <c r="AB68">
+        <v>3.6</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>6</v>
+      </c>
+      <c r="AE68">
+        <v>1.38</v>
+      </c>
+      <c r="AF68">
+        <v>2.88</v>
+      </c>
+      <c r="AG68">
+        <v>2.15</v>
+      </c>
+      <c r="AH68">
+        <v>1.67</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.3</v>
+      </c>
+      <c r="AL68">
+        <v>1.28</v>
+      </c>
+      <c r="AM68">
+        <v>1.66</v>
+      </c>
+      <c r="AN68">
+        <v>2.17</v>
+      </c>
+      <c r="AO68">
+        <v>1.17</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.14</v>
+      </c>
+      <c r="AR68">
+        <v>1.39</v>
+      </c>
+      <c r="AS68">
+        <v>1.55</v>
+      </c>
+      <c r="AT68">
+        <v>2.94</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>8</v>
+      </c>
+      <c r="AZ68">
+        <v>6</v>
+      </c>
+      <c r="BA68">
+        <v>8</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>1.82</v>
+      </c>
+      <c r="BE68">
+        <v>7.9</v>
+      </c>
+      <c r="BF68">
+        <v>2.42</v>
+      </c>
+      <c r="BG68">
+        <v>1.31</v>
+      </c>
+      <c r="BH68">
+        <v>3.15</v>
+      </c>
+      <c r="BI68">
+        <v>1.55</v>
+      </c>
+      <c r="BJ68">
+        <v>2.29</v>
+      </c>
+      <c r="BK68">
+        <v>1.92</v>
+      </c>
+      <c r="BL68">
+        <v>1.79</v>
+      </c>
+      <c r="BM68">
+        <v>2.47</v>
+      </c>
+      <c r="BN68">
+        <v>1.48</v>
+      </c>
+      <c r="BO68">
+        <v>3.3</v>
+      </c>
+      <c r="BP68">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,12 +388,18 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['24', '78']</t>
+    <t>['-1', '-1']</t>
   </si>
   <si>
     <t>['74']</t>
   </si>
   <si>
+    <t>['41', '58']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -502,10 +508,13 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['38', '70', '89']</t>
+    <t>['-1', '-1', '-1']</t>
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['9', '85']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -1744,7 +1753,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1822,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1950,7 +1959,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2234,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2568,7 +2577,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2649,7 +2658,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2774,7 +2783,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2852,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10">
         <v>1.71</v>
@@ -3061,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3264,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3392,7 +3401,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3598,7 +3607,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3804,7 +3813,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4216,7 +4225,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4628,7 +4637,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4706,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4834,7 +4843,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4915,7 +4924,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5040,7 +5049,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5118,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5246,7 +5255,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5452,7 +5461,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6070,7 +6079,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6276,7 +6285,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6354,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6482,7 +6491,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6688,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6769,7 +6778,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -6972,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
         <v>0.86</v>
@@ -7178,7 +7187,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7512,7 +7521,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7718,7 +7727,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7924,7 +7933,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8414,7 +8423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
         <v>0.71</v>
@@ -8542,7 +8551,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8620,7 +8629,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ38">
         <v>1.14</v>
@@ -8748,7 +8757,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8826,7 +8835,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9035,7 +9044,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9160,7 +9169,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9366,7 +9375,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9859,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -9984,7 +9993,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10396,7 +10405,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10477,7 +10486,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10602,7 +10611,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10680,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -10808,7 +10817,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11014,7 +11023,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11095,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11426,7 +11435,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11632,7 +11641,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11838,7 +11847,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12044,7 +12053,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12122,7 +12131,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ55">
         <v>1.57</v>
@@ -12456,7 +12465,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12534,7 +12543,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>1.71</v>
@@ -12662,7 +12671,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12946,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13074,7 +13083,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13155,7 +13164,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13361,7 +13370,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13486,7 +13495,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13564,7 +13573,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -13692,7 +13701,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13898,7 +13907,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14104,7 +14113,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14310,7 +14319,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14495,13 +14504,13 @@
         <v>79</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -14516,7 +14525,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14722,7 +14731,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14818,19 +14827,19 @@
         <v>4</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX68">
         <v>3</v>
       </c>
       <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
         <v>8</v>
-      </c>
-      <c r="AZ68">
-        <v>6</v>
       </c>
       <c r="BA68">
         <v>8</v>
@@ -14879,6 +14888,624 @@
       </c>
       <c r="BP68">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7451020</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45619.57291666666</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q69">
+        <v>2.38</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>5.5</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>1.65</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
+        <v>4.75</v>
+      </c>
+      <c r="AC69">
+        <v>1.02</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.34</v>
+      </c>
+      <c r="AF69">
+        <v>3.12</v>
+      </c>
+      <c r="AG69">
+        <v>2.1</v>
+      </c>
+      <c r="AH69">
+        <v>1.7</v>
+      </c>
+      <c r="AI69">
+        <v>2.1</v>
+      </c>
+      <c r="AJ69">
+        <v>1.67</v>
+      </c>
+      <c r="AK69">
+        <v>1.11</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.15</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1.86</v>
+      </c>
+      <c r="AQ69">
+        <v>1.86</v>
+      </c>
+      <c r="AR69">
+        <v>1.96</v>
+      </c>
+      <c r="AS69">
+        <v>1.29</v>
+      </c>
+      <c r="AT69">
+        <v>3.25</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>18</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.47</v>
+      </c>
+      <c r="BE69">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>3.45</v>
+      </c>
+      <c r="BG69">
+        <v>1.48</v>
+      </c>
+      <c r="BH69">
+        <v>2.48</v>
+      </c>
+      <c r="BI69">
+        <v>1.82</v>
+      </c>
+      <c r="BJ69">
+        <v>1.88</v>
+      </c>
+      <c r="BK69">
+        <v>2.35</v>
+      </c>
+      <c r="BL69">
+        <v>1.53</v>
+      </c>
+      <c r="BM69">
+        <v>3.15</v>
+      </c>
+      <c r="BN69">
+        <v>1.31</v>
+      </c>
+      <c r="BO69">
+        <v>3.78</v>
+      </c>
+      <c r="BP69">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7451021</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>74</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P70" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q70">
+        <v>3.5</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.2</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>2.75</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.4</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>8</v>
+      </c>
+      <c r="AE70">
+        <v>1.36</v>
+      </c>
+      <c r="AF70">
+        <v>3</v>
+      </c>
+      <c r="AG70">
+        <v>2.05</v>
+      </c>
+      <c r="AH70">
+        <v>1.75</v>
+      </c>
+      <c r="AI70">
+        <v>1.83</v>
+      </c>
+      <c r="AJ70">
+        <v>1.83</v>
+      </c>
+      <c r="AK70">
+        <v>1.53</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.4</v>
+      </c>
+      <c r="AN70">
+        <v>1.5</v>
+      </c>
+      <c r="AO70">
+        <v>1.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.43</v>
+      </c>
+      <c r="AQ70">
+        <v>1.43</v>
+      </c>
+      <c r="AR70">
+        <v>1.61</v>
+      </c>
+      <c r="AS70">
+        <v>1.3</v>
+      </c>
+      <c r="AT70">
+        <v>2.91</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>1</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>17</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>1.95</v>
+      </c>
+      <c r="BE70">
+        <v>7.2</v>
+      </c>
+      <c r="BF70">
+        <v>2.24</v>
+      </c>
+      <c r="BG70">
+        <v>1.29</v>
+      </c>
+      <c r="BH70">
+        <v>3.25</v>
+      </c>
+      <c r="BI70">
+        <v>1.52</v>
+      </c>
+      <c r="BJ70">
+        <v>2.36</v>
+      </c>
+      <c r="BK70">
+        <v>1.87</v>
+      </c>
+      <c r="BL70">
+        <v>1.83</v>
+      </c>
+      <c r="BM70">
+        <v>2.39</v>
+      </c>
+      <c r="BN70">
+        <v>1.51</v>
+      </c>
+      <c r="BO70">
+        <v>3.2</v>
+      </c>
+      <c r="BP70">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7451019</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45620.57291666666</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>127</v>
+      </c>
+      <c r="P71" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q71">
+        <v>3.1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1.5</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>3.4</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>2.25</v>
+      </c>
+      <c r="AA71">
+        <v>3.2</v>
+      </c>
+      <c r="AB71">
+        <v>3</v>
+      </c>
+      <c r="AC71">
+        <v>1.06</v>
+      </c>
+      <c r="AD71">
+        <v>7.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.4</v>
+      </c>
+      <c r="AF71">
+        <v>2.8</v>
+      </c>
+      <c r="AG71">
+        <v>2.25</v>
+      </c>
+      <c r="AH71">
+        <v>1.62</v>
+      </c>
+      <c r="AI71">
+        <v>1.91</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.28</v>
+      </c>
+      <c r="AM71">
+        <v>1.66</v>
+      </c>
+      <c r="AN71">
+        <v>0.83</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>1.14</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0.93</v>
+      </c>
+      <c r="AS71">
+        <v>0.86</v>
+      </c>
+      <c r="AT71">
+        <v>1.79</v>
+      </c>
+      <c r="AU71">
+        <v>7</v>
+      </c>
+      <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>3</v>
+      </c>
+      <c r="AY71">
+        <v>18</v>
+      </c>
+      <c r="AZ71">
+        <v>13</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>5</v>
+      </c>
+      <c r="BD71">
+        <v>1.62</v>
+      </c>
+      <c r="BE71">
+        <v>7.7</v>
+      </c>
+      <c r="BF71">
+        <v>2.91</v>
+      </c>
+      <c r="BG71">
+        <v>1.37</v>
+      </c>
+      <c r="BH71">
+        <v>2.83</v>
+      </c>
+      <c r="BI71">
+        <v>1.65</v>
+      </c>
+      <c r="BJ71">
+        <v>2.1</v>
+      </c>
+      <c r="BK71">
+        <v>2.08</v>
+      </c>
+      <c r="BL71">
+        <v>1.67</v>
+      </c>
+      <c r="BM71">
+        <v>2.73</v>
+      </c>
+      <c r="BN71">
+        <v>1.4</v>
+      </c>
+      <c r="BO71">
+        <v>3.7</v>
+      </c>
+      <c r="BP71">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,15 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['6', '47']</t>
+  </si>
+  <si>
+    <t>['35', '57', '73']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -515,6 +524,12 @@
   </si>
   <si>
     <t>['9', '85']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['45+2', '54']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1625,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -1753,7 +1768,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1834,7 +1849,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1959,7 +1974,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2577,7 +2592,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2783,7 +2798,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3067,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>1.86</v>
@@ -3276,7 +3291,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3401,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3479,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -3607,7 +3622,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3813,7 +3828,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3894,7 +3909,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4097,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4225,7 +4240,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4306,7 +4321,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4509,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4637,7 +4652,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4843,7 +4858,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5049,7 +5064,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5255,7 +5270,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5336,7 +5351,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5461,7 +5476,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5539,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -5748,7 +5763,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ24">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6079,7 +6094,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6157,7 +6172,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6285,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6491,7 +6506,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6697,7 +6712,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7393,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7521,7 +7536,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7599,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
         <v>1.71</v>
@@ -7727,7 +7742,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7933,7 +7948,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8014,7 +8029,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8217,10 +8232,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8551,7 +8566,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8757,7 +8772,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9041,7 +9056,7 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9169,7 +9184,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9375,7 +9390,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9456,7 +9471,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9865,7 +9880,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.86</v>
@@ -9993,7 +10008,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10071,7 +10086,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1.71</v>
@@ -10280,7 +10295,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10405,7 +10420,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10611,7 +10626,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10692,7 +10707,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -10817,7 +10832,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11023,7 +11038,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11101,7 +11116,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>1.43</v>
@@ -11307,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11435,7 +11450,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11513,10 +11528,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11641,7 +11656,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11847,7 +11862,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -11925,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12053,7 +12068,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12134,7 +12149,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12465,7 +12480,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12671,7 +12686,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13083,7 +13098,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13367,7 +13382,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
         <v>1.43</v>
@@ -13495,7 +13510,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13701,7 +13716,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13907,7 +13922,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14113,7 +14128,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14191,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14319,7 +14334,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14397,10 +14412,10 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.64</v>
@@ -14525,7 +14540,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14731,7 +14746,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14809,7 +14824,7 @@
         <v>1.17</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>1.14</v>
@@ -15143,7 +15158,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15506,6 +15521,624 @@
       </c>
       <c r="BP71">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7451024</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>128</v>
+      </c>
+      <c r="P72" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q72">
+        <v>2.25</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>6.5</v>
+      </c>
+      <c r="T72">
+        <v>1.44</v>
+      </c>
+      <c r="U72">
+        <v>2.69</v>
+      </c>
+      <c r="V72">
+        <v>3.26</v>
+      </c>
+      <c r="W72">
+        <v>1.32</v>
+      </c>
+      <c r="X72">
+        <v>8.4</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>1.6</v>
+      </c>
+      <c r="AA72">
+        <v>3.7</v>
+      </c>
+      <c r="AB72">
+        <v>6.25</v>
+      </c>
+      <c r="AC72">
+        <v>1.07</v>
+      </c>
+      <c r="AD72">
+        <v>7.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.38</v>
+      </c>
+      <c r="AF72">
+        <v>2.88</v>
+      </c>
+      <c r="AG72">
+        <v>2.3</v>
+      </c>
+      <c r="AH72">
+        <v>1.6</v>
+      </c>
+      <c r="AI72">
+        <v>2.38</v>
+      </c>
+      <c r="AJ72">
+        <v>1.53</v>
+      </c>
+      <c r="AK72">
+        <v>1.16</v>
+      </c>
+      <c r="AL72">
+        <v>1.28</v>
+      </c>
+      <c r="AM72">
+        <v>2.04</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>2.13</v>
+      </c>
+      <c r="AQ72">
+        <v>0.88</v>
+      </c>
+      <c r="AR72">
+        <v>1.34</v>
+      </c>
+      <c r="AS72">
+        <v>0.95</v>
+      </c>
+      <c r="AT72">
+        <v>2.29</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>7</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
+      <c r="BC72">
+        <v>5</v>
+      </c>
+      <c r="BD72">
+        <v>1.37</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>4.26</v>
+      </c>
+      <c r="BG72">
+        <v>1.34</v>
+      </c>
+      <c r="BH72">
+        <v>2.98</v>
+      </c>
+      <c r="BI72">
+        <v>1.6</v>
+      </c>
+      <c r="BJ72">
+        <v>2.19</v>
+      </c>
+      <c r="BK72">
+        <v>2</v>
+      </c>
+      <c r="BL72">
+        <v>1.72</v>
+      </c>
+      <c r="BM72">
+        <v>2.6</v>
+      </c>
+      <c r="BN72">
+        <v>1.44</v>
+      </c>
+      <c r="BO72">
+        <v>3.5</v>
+      </c>
+      <c r="BP72">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7451026</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q73">
+        <v>3.75</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>2.88</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3.02</v>
+      </c>
+      <c r="V73">
+        <v>2.83</v>
+      </c>
+      <c r="W73">
+        <v>1.4</v>
+      </c>
+      <c r="X73">
+        <v>6.9</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>3.2</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.15</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>9</v>
+      </c>
+      <c r="AE73">
+        <v>1.22</v>
+      </c>
+      <c r="AF73">
+        <v>3.8</v>
+      </c>
+      <c r="AG73">
+        <v>1.9</v>
+      </c>
+      <c r="AH73">
+        <v>1.9</v>
+      </c>
+      <c r="AI73">
+        <v>1.73</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>1.68</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.32</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1.57</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.38</v>
+      </c>
+      <c r="AR73">
+        <v>1.53</v>
+      </c>
+      <c r="AS73">
+        <v>1.43</v>
+      </c>
+      <c r="AT73">
+        <v>2.96</v>
+      </c>
+      <c r="AU73">
+        <v>8</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>1</v>
+      </c>
+      <c r="AX73">
+        <v>4</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>15</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>9</v>
+      </c>
+      <c r="BC73">
+        <v>16</v>
+      </c>
+      <c r="BD73">
+        <v>2.28</v>
+      </c>
+      <c r="BE73">
+        <v>7.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.9</v>
+      </c>
+      <c r="BG73">
+        <v>1.31</v>
+      </c>
+      <c r="BH73">
+        <v>3.15</v>
+      </c>
+      <c r="BI73">
+        <v>1.55</v>
+      </c>
+      <c r="BJ73">
+        <v>2.29</v>
+      </c>
+      <c r="BK73">
+        <v>1.92</v>
+      </c>
+      <c r="BL73">
+        <v>1.79</v>
+      </c>
+      <c r="BM73">
+        <v>2.47</v>
+      </c>
+      <c r="BN73">
+        <v>1.48</v>
+      </c>
+      <c r="BO73">
+        <v>3.3</v>
+      </c>
+      <c r="BP73">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7451028</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45626.5625</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>130</v>
+      </c>
+      <c r="P74" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q74">
+        <v>1.8</v>
+      </c>
+      <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>9</v>
+      </c>
+      <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3.05</v>
+      </c>
+      <c r="V74">
+        <v>2.82</v>
+      </c>
+      <c r="W74">
+        <v>1.41</v>
+      </c>
+      <c r="X74">
+        <v>6.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.1</v>
+      </c>
+      <c r="Z74">
+        <v>1.3</v>
+      </c>
+      <c r="AA74">
+        <v>5</v>
+      </c>
+      <c r="AB74">
+        <v>9</v>
+      </c>
+      <c r="AC74">
+        <v>1.01</v>
+      </c>
+      <c r="AD74">
+        <v>11</v>
+      </c>
+      <c r="AE74">
+        <v>1.2</v>
+      </c>
+      <c r="AF74">
+        <v>4</v>
+      </c>
+      <c r="AG74">
+        <v>1.85</v>
+      </c>
+      <c r="AH74">
+        <v>1.95</v>
+      </c>
+      <c r="AI74">
+        <v>2.38</v>
+      </c>
+      <c r="AJ74">
+        <v>1.53</v>
+      </c>
+      <c r="AK74">
+        <v>1.03</v>
+      </c>
+      <c r="AL74">
+        <v>1.15</v>
+      </c>
+      <c r="AM74">
+        <v>3.34</v>
+      </c>
+      <c r="AN74">
+        <v>1.86</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>2</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>1.72</v>
+      </c>
+      <c r="AS74">
+        <v>0.9</v>
+      </c>
+      <c r="AT74">
+        <v>2.62</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>1</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>9</v>
+      </c>
+      <c r="AZ74">
+        <v>17</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.15</v>
+      </c>
+      <c r="BE74">
+        <v>12</v>
+      </c>
+      <c r="BF74">
+        <v>7.24</v>
+      </c>
+      <c r="BG74">
+        <v>1.31</v>
+      </c>
+      <c r="BH74">
+        <v>2.82</v>
+      </c>
+      <c r="BI74">
+        <v>1.6</v>
+      </c>
+      <c r="BJ74">
+        <v>2.08</v>
+      </c>
+      <c r="BK74">
+        <v>2.06</v>
+      </c>
+      <c r="BL74">
+        <v>1.68</v>
+      </c>
+      <c r="BM74">
+        <v>2.66</v>
+      </c>
+      <c r="BN74">
+        <v>1.37</v>
+      </c>
+      <c r="BO74">
+        <v>3.62</v>
+      </c>
+      <c r="BP74">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -466,9 +472,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -530,6 +533,9 @@
   </si>
   <si>
     <t>['45+2', '54']</t>
+  </si>
+  <si>
+    <t>['3', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1768,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1974,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2052,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ6">
         <v>0.86</v>
@@ -2592,7 +2598,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2670,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -2798,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2879,7 +2885,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3416,7 +3422,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3622,7 +3628,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3700,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3828,7 +3834,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4115,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.93</v>
@@ -4240,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4318,7 +4324,7 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -4652,7 +4658,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4858,7 +4864,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5064,7 +5070,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5270,7 +5276,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5476,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5557,7 +5563,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.43</v>
@@ -5760,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -5966,7 +5972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6094,7 +6100,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6175,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6300,7 +6306,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6506,7 +6512,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6712,7 +6718,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7411,7 +7417,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7536,7 +7542,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7617,7 +7623,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7742,7 +7748,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7820,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7948,7 +7954,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8026,7 +8032,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8441,7 +8447,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.04</v>
@@ -8566,7 +8572,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="Q38">
         <v>1.67</v>
@@ -8772,7 +8778,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9184,7 +9190,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9390,7 +9396,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9674,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -10008,7 +10014,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10089,7 +10095,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10292,7 +10298,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ46">
         <v>0.88</v>
@@ -10420,7 +10426,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10498,7 +10504,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ47">
         <v>1.86</v>
@@ -10626,7 +10632,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10832,7 +10838,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10913,7 +10919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11038,7 +11044,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11450,7 +11456,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11656,7 +11662,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11734,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -11862,7 +11868,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12068,7 +12074,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12355,7 +12361,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.17</v>
@@ -12480,7 +12486,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12561,7 +12567,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -12686,7 +12692,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12764,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ58">
         <v>0.86</v>
@@ -13098,7 +13104,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13510,7 +13516,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13716,7 +13722,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13797,7 +13803,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -13922,7 +13928,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14000,10 +14006,10 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.63</v>
@@ -14128,7 +14134,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14334,7 +14340,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14540,7 +14546,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14746,7 +14752,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15158,7 +15164,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15570,7 +15576,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15776,7 +15782,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16139,6 +16145,418 @@
       </c>
       <c r="BP74">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7451025</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>131</v>
+      </c>
+      <c r="P75" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q75">
+        <v>2.6</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.6</v>
+      </c>
+      <c r="V75">
+        <v>2.95</v>
+      </c>
+      <c r="W75">
+        <v>1.35</v>
+      </c>
+      <c r="X75">
+        <v>7.4</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>1.91</v>
+      </c>
+      <c r="AA75">
+        <v>3.4</v>
+      </c>
+      <c r="AB75">
+        <v>3.9</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
+      <c r="AD75">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>1.33</v>
+      </c>
+      <c r="AF75">
+        <v>3.1</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1.8</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>1.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.85</v>
+      </c>
+      <c r="AN75">
+        <v>0.71</v>
+      </c>
+      <c r="AO75">
+        <v>0.71</v>
+      </c>
+      <c r="AP75">
+        <v>0.63</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.54</v>
+      </c>
+      <c r="AS75">
+        <v>1.02</v>
+      </c>
+      <c r="AT75">
+        <v>2.56</v>
+      </c>
+      <c r="AU75">
+        <v>3</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.49</v>
+      </c>
+      <c r="BE75">
+        <v>7.7</v>
+      </c>
+      <c r="BF75">
+        <v>3.45</v>
+      </c>
+      <c r="BG75">
+        <v>1.31</v>
+      </c>
+      <c r="BH75">
+        <v>3.15</v>
+      </c>
+      <c r="BI75">
+        <v>1.55</v>
+      </c>
+      <c r="BJ75">
+        <v>2.29</v>
+      </c>
+      <c r="BK75">
+        <v>1.92</v>
+      </c>
+      <c r="BL75">
+        <v>1.79</v>
+      </c>
+      <c r="BM75">
+        <v>2.47</v>
+      </c>
+      <c r="BN75">
+        <v>1.48</v>
+      </c>
+      <c r="BO75">
+        <v>3.3</v>
+      </c>
+      <c r="BP75">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7451027</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45627.57291666666</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>132</v>
+      </c>
+      <c r="P76" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q76">
+        <v>3.25</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>3.6</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.6</v>
+      </c>
+      <c r="V76">
+        <v>2.95</v>
+      </c>
+      <c r="W76">
+        <v>1.35</v>
+      </c>
+      <c r="X76">
+        <v>7.4</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>2.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.2</v>
+      </c>
+      <c r="AB76">
+        <v>2.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>7.8</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
+        <v>3.1</v>
+      </c>
+      <c r="AG76">
+        <v>2.25</v>
+      </c>
+      <c r="AH76">
+        <v>1.62</v>
+      </c>
+      <c r="AI76">
+        <v>1.91</v>
+      </c>
+      <c r="AJ76">
+        <v>1.8</v>
+      </c>
+      <c r="AK76">
+        <v>1.52</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.42</v>
+      </c>
+      <c r="AN76">
+        <v>2.71</v>
+      </c>
+      <c r="AO76">
+        <v>1.71</v>
+      </c>
+      <c r="AP76">
+        <v>2.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.66</v>
+      </c>
+      <c r="AS76">
+        <v>1.72</v>
+      </c>
+      <c r="AT76">
+        <v>3.38</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>3</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>7</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>4</v>
+      </c>
+      <c r="BC76">
+        <v>8</v>
+      </c>
+      <c r="BD76">
+        <v>1.98</v>
+      </c>
+      <c r="BE76">
+        <v>7.2</v>
+      </c>
+      <c r="BF76">
+        <v>2.2</v>
+      </c>
+      <c r="BG76">
+        <v>1.37</v>
+      </c>
+      <c r="BH76">
+        <v>2.83</v>
+      </c>
+      <c r="BI76">
+        <v>1.65</v>
+      </c>
+      <c r="BJ76">
+        <v>2.1</v>
+      </c>
+      <c r="BK76">
+        <v>2.08</v>
+      </c>
+      <c r="BL76">
+        <v>1.67</v>
+      </c>
+      <c r="BM76">
+        <v>2.73</v>
+      </c>
+      <c r="BN76">
+        <v>1.4</v>
+      </c>
+      <c r="BO76">
+        <v>3.7</v>
+      </c>
+      <c r="BP76">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -434,9 +437,6 @@
   </si>
   <si>
     <t>['53', '61']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -897,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1774,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1980,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2061,7 +2061,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2804,7 +2804,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.88</v>
@@ -3422,7 +3422,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3628,7 +3628,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3834,7 +3834,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4246,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4533,7 +4533,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>1.43</v>
@@ -7005,7 +7005,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -8650,7 +8650,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>1.14</v>
@@ -9271,7 +9271,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -12152,7 +12152,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12773,7 +12773,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ58">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -14627,7 +14627,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.18</v>
@@ -15036,7 +15036,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>1.86</v>
@@ -16557,6 +16557,212 @@
       </c>
       <c r="BP76">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7451043</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" t="s">
+        <v>79</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q77">
+        <v>1.8</v>
+      </c>
+      <c r="R77">
+        <v>2.63</v>
+      </c>
+      <c r="S77">
+        <v>7</v>
+      </c>
+      <c r="T77">
+        <v>1.28</v>
+      </c>
+      <c r="U77">
+        <v>3.3</v>
+      </c>
+      <c r="V77">
+        <v>2.38</v>
+      </c>
+      <c r="W77">
+        <v>1.53</v>
+      </c>
+      <c r="X77">
+        <v>5.45</v>
+      </c>
+      <c r="Y77">
+        <v>1.12</v>
+      </c>
+      <c r="Z77">
+        <v>1.33</v>
+      </c>
+      <c r="AA77">
+        <v>5.5</v>
+      </c>
+      <c r="AB77">
+        <v>6.5</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>15</v>
+      </c>
+      <c r="AE77">
+        <v>1.17</v>
+      </c>
+      <c r="AF77">
+        <v>5</v>
+      </c>
+      <c r="AG77">
+        <v>1.5</v>
+      </c>
+      <c r="AH77">
+        <v>2.5</v>
+      </c>
+      <c r="AI77">
+        <v>1.8</v>
+      </c>
+      <c r="AJ77">
+        <v>1.91</v>
+      </c>
+      <c r="AK77">
+        <v>1.02</v>
+      </c>
+      <c r="AL77">
+        <v>1.12</v>
+      </c>
+      <c r="AM77">
+        <v>3.72</v>
+      </c>
+      <c r="AN77">
+        <v>1.86</v>
+      </c>
+      <c r="AO77">
+        <v>0.86</v>
+      </c>
+      <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
+        <v>0.88</v>
+      </c>
+      <c r="AR77">
+        <v>1.79</v>
+      </c>
+      <c r="AS77">
+        <v>1.51</v>
+      </c>
+      <c r="AT77">
+        <v>3.3</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>20</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>28</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>11</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>13</v>
+      </c>
+      <c r="BD77">
+        <v>1.19</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>6</v>
+      </c>
+      <c r="BG77">
+        <v>1.3</v>
+      </c>
+      <c r="BH77">
+        <v>3.1</v>
+      </c>
+      <c r="BI77">
+        <v>1.55</v>
+      </c>
+      <c r="BJ77">
+        <v>2.22</v>
+      </c>
+      <c r="BK77">
+        <v>2</v>
+      </c>
+      <c r="BL77">
+        <v>1.7</v>
+      </c>
+      <c r="BM77">
+        <v>2.7</v>
+      </c>
+      <c r="BN77">
+        <v>1.4</v>
+      </c>
+      <c r="BO77">
+        <v>3.8</v>
+      </c>
+      <c r="BP77">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -897,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ15">
         <v>1.38</v>
@@ -4942,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6387,7 +6387,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6590,7 +6590,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ28">
         <v>1.14</v>
@@ -6796,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>1.86</v>
@@ -9065,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>0.88</v>
@@ -9474,7 +9474,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -10916,7 +10916,7 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11125,7 +11125,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -12358,7 +12358,7 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13182,7 +13182,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -13391,7 +13391,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13800,7 +13800,7 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14624,7 +14624,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15245,7 +15245,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -16699,22 +16699,22 @@
         <v>3.3</v>
       </c>
       <c r="AU77">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV77">
         <v>4</v>
       </c>
       <c r="AW77">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AX77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY77">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA77">
         <v>11</v>
@@ -16763,6 +16763,418 @@
       </c>
       <c r="BP77">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7451045</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>81</v>
+      </c>
+      <c r="P78" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q78">
+        <v>3.4</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>3.6</v>
+      </c>
+      <c r="T78">
+        <v>1.49</v>
+      </c>
+      <c r="U78">
+        <v>2.54</v>
+      </c>
+      <c r="V78">
+        <v>3.44</v>
+      </c>
+      <c r="W78">
+        <v>1.28</v>
+      </c>
+      <c r="X78">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>1.03</v>
+      </c>
+      <c r="Z78">
+        <v>2.5</v>
+      </c>
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AB78">
+        <v>2.75</v>
+      </c>
+      <c r="AC78">
+        <v>1.06</v>
+      </c>
+      <c r="AD78">
+        <v>7.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.36</v>
+      </c>
+      <c r="AF78">
+        <v>2.88</v>
+      </c>
+      <c r="AG78">
+        <v>2.3</v>
+      </c>
+      <c r="AH78">
+        <v>1.6</v>
+      </c>
+      <c r="AI78">
+        <v>1.91</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.39</v>
+      </c>
+      <c r="AL78">
+        <v>1.34</v>
+      </c>
+      <c r="AM78">
+        <v>1.51</v>
+      </c>
+      <c r="AN78">
+        <v>1.14</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.13</v>
+      </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
+      <c r="AR78">
+        <v>1.18</v>
+      </c>
+      <c r="AS78">
+        <v>1.53</v>
+      </c>
+      <c r="AT78">
+        <v>2.71</v>
+      </c>
+      <c r="AU78">
+        <v>2</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>9</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>13</v>
+      </c>
+      <c r="AZ78">
+        <v>5</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>5</v>
+      </c>
+      <c r="BD78">
+        <v>2</v>
+      </c>
+      <c r="BE78">
+        <v>6.9</v>
+      </c>
+      <c r="BF78">
+        <v>2.2</v>
+      </c>
+      <c r="BG78">
+        <v>1.46</v>
+      </c>
+      <c r="BH78">
+        <v>2.52</v>
+      </c>
+      <c r="BI78">
+        <v>1.8</v>
+      </c>
+      <c r="BJ78">
+        <v>1.9</v>
+      </c>
+      <c r="BK78">
+        <v>2.32</v>
+      </c>
+      <c r="BL78">
+        <v>1.54</v>
+      </c>
+      <c r="BM78">
+        <v>3.1</v>
+      </c>
+      <c r="BN78">
+        <v>1.32</v>
+      </c>
+      <c r="BO78">
+        <v>4</v>
+      </c>
+      <c r="BP78">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7451030</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45633.5625</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>99</v>
+      </c>
+      <c r="P79" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q79">
+        <v>8</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>1.95</v>
+      </c>
+      <c r="T79">
+        <v>1.36</v>
+      </c>
+      <c r="U79">
+        <v>3.02</v>
+      </c>
+      <c r="V79">
+        <v>2.83</v>
+      </c>
+      <c r="W79">
+        <v>1.4</v>
+      </c>
+      <c r="X79">
+        <v>7.2</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>8.5</v>
+      </c>
+      <c r="AA79">
+        <v>4.2</v>
+      </c>
+      <c r="AB79">
+        <v>1.38</v>
+      </c>
+      <c r="AC79">
+        <v>1.01</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>3.8</v>
+      </c>
+      <c r="AG79">
+        <v>1.95</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>2.25</v>
+      </c>
+      <c r="AJ79">
+        <v>1.57</v>
+      </c>
+      <c r="AK79">
+        <v>2.74</v>
+      </c>
+      <c r="AL79">
+        <v>1.19</v>
+      </c>
+      <c r="AM79">
+        <v>1.08</v>
+      </c>
+      <c r="AN79">
+        <v>1.71</v>
+      </c>
+      <c r="AO79">
+        <v>1.43</v>
+      </c>
+      <c r="AP79">
+        <v>1.88</v>
+      </c>
+      <c r="AQ79">
+        <v>1.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.09</v>
+      </c>
+      <c r="AS79">
+        <v>1.35</v>
+      </c>
+      <c r="AT79">
+        <v>2.44</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>12</v>
+      </c>
+      <c r="AZ79">
+        <v>29</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>15</v>
+      </c>
+      <c r="BC79">
+        <v>17</v>
+      </c>
+      <c r="BD79">
+        <v>4.16</v>
+      </c>
+      <c r="BE79">
+        <v>7.7</v>
+      </c>
+      <c r="BF79">
+        <v>1.39</v>
+      </c>
+      <c r="BG79">
+        <v>1.34</v>
+      </c>
+      <c r="BH79">
+        <v>2.98</v>
+      </c>
+      <c r="BI79">
+        <v>1.6</v>
+      </c>
+      <c r="BJ79">
+        <v>2.19</v>
+      </c>
+      <c r="BK79">
+        <v>1.99</v>
+      </c>
+      <c r="BL79">
+        <v>1.73</v>
+      </c>
+      <c r="BM79">
+        <v>2.6</v>
+      </c>
+      <c r="BN79">
+        <v>1.44</v>
+      </c>
+      <c r="BO79">
+        <v>3.5</v>
+      </c>
+      <c r="BP79">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['2', '32', '56']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -536,6 +539,9 @@
   </si>
   <si>
     <t>['3', '45+1']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1649,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1774,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1852,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ5">
         <v>0.88</v>
@@ -1980,7 +1986,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.88</v>
@@ -2598,7 +2604,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2804,7 +2810,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3091,7 +3097,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3422,7 +3428,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3503,7 +3509,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3628,7 +3634,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3834,7 +3840,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4658,7 +4664,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4864,7 +4870,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5070,7 +5076,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5148,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5276,7 +5282,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5482,7 +5488,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6100,7 +6106,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6306,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6512,7 +6518,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6593,7 +6599,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6718,7 +6724,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6799,7 +6805,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7002,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7208,7 +7214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7542,7 +7548,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7748,7 +7754,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7954,7 +7960,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8444,7 +8450,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8653,7 +8659,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -8778,7 +8784,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8856,7 +8862,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9190,7 +9196,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9396,7 +9402,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9889,7 +9895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10014,7 +10020,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10426,7 +10432,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10507,7 +10513,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ47">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10632,7 +10638,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10710,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -10838,7 +10844,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11044,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11456,7 +11462,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11662,7 +11668,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11743,7 +11749,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -11868,7 +11874,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12074,7 +12080,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12486,7 +12492,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12564,7 +12570,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12692,7 +12698,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12976,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13104,7 +13110,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13185,7 +13191,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13516,7 +13522,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13594,10 +13600,10 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -13722,7 +13728,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13928,7 +13934,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14134,7 +14140,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14340,7 +14346,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14546,7 +14552,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14752,7 +14758,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14833,7 +14839,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15039,7 +15045,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15164,7 +15170,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15242,7 +15248,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -15448,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15576,7 +15582,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15782,7 +15788,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16194,7 +16200,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17175,6 +17181,418 @@
       </c>
       <c r="BP79">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7451029</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q80">
+        <v>7</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>2.2</v>
+      </c>
+      <c r="T80">
+        <v>1.47</v>
+      </c>
+      <c r="U80">
+        <v>2.5</v>
+      </c>
+      <c r="V80">
+        <v>3.25</v>
+      </c>
+      <c r="W80">
+        <v>1.3</v>
+      </c>
+      <c r="X80">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>1.04</v>
+      </c>
+      <c r="Z80">
+        <v>6.25</v>
+      </c>
+      <c r="AA80">
+        <v>3.7</v>
+      </c>
+      <c r="AB80">
+        <v>1.53</v>
+      </c>
+      <c r="AC80">
+        <v>1.05</v>
+      </c>
+      <c r="AD80">
+        <v>8</v>
+      </c>
+      <c r="AE80">
+        <v>1.38</v>
+      </c>
+      <c r="AF80">
+        <v>2.9</v>
+      </c>
+      <c r="AG80">
+        <v>2.25</v>
+      </c>
+      <c r="AH80">
+        <v>1.62</v>
+      </c>
+      <c r="AI80">
+        <v>2.25</v>
+      </c>
+      <c r="AJ80">
+        <v>1.57</v>
+      </c>
+      <c r="AK80">
+        <v>2.3</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.09</v>
+      </c>
+      <c r="AN80">
+        <v>1.14</v>
+      </c>
+      <c r="AO80">
+        <v>1.86</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>1.06</v>
+      </c>
+      <c r="AS80">
+        <v>1.32</v>
+      </c>
+      <c r="AT80">
+        <v>2.38</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>8</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>12</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>4</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>5</v>
+      </c>
+      <c r="BD80">
+        <v>4.8</v>
+      </c>
+      <c r="BE80">
+        <v>7.1</v>
+      </c>
+      <c r="BF80">
+        <v>1.28</v>
+      </c>
+      <c r="BG80">
+        <v>1.34</v>
+      </c>
+      <c r="BH80">
+        <v>2.78</v>
+      </c>
+      <c r="BI80">
+        <v>1.66</v>
+      </c>
+      <c r="BJ80">
+        <v>2.09</v>
+      </c>
+      <c r="BK80">
+        <v>2.07</v>
+      </c>
+      <c r="BL80">
+        <v>1.61</v>
+      </c>
+      <c r="BM80">
+        <v>2.73</v>
+      </c>
+      <c r="BN80">
+        <v>1.33</v>
+      </c>
+      <c r="BO80">
+        <v>4.35</v>
+      </c>
+      <c r="BP80">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7451044</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45634.5625</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>134</v>
+      </c>
+      <c r="P81" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q81">
+        <v>2.38</v>
+      </c>
+      <c r="R81">
+        <v>2.25</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.39</v>
+      </c>
+      <c r="U81">
+        <v>2.8</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>6.95</v>
+      </c>
+      <c r="Y81">
+        <v>1.07</v>
+      </c>
+      <c r="Z81">
+        <v>1.73</v>
+      </c>
+      <c r="AA81">
+        <v>3.6</v>
+      </c>
+      <c r="AB81">
+        <v>4.5</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>10</v>
+      </c>
+      <c r="AE81">
+        <v>1.28</v>
+      </c>
+      <c r="AF81">
+        <v>3.4</v>
+      </c>
+      <c r="AG81">
+        <v>1.85</v>
+      </c>
+      <c r="AH81">
+        <v>1.95</v>
+      </c>
+      <c r="AI81">
+        <v>1.8</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>1.16</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>2</v>
+      </c>
+      <c r="AN81">
+        <v>1.43</v>
+      </c>
+      <c r="AO81">
+        <v>1.14</v>
+      </c>
+      <c r="AP81">
+        <v>1.63</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>1.59</v>
+      </c>
+      <c r="AS81">
+        <v>1.51</v>
+      </c>
+      <c r="AT81">
+        <v>3.1</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>13</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>4</v>
+      </c>
+      <c r="BD81">
+        <v>1.6</v>
+      </c>
+      <c r="BE81">
+        <v>6.2</v>
+      </c>
+      <c r="BF81">
+        <v>2.92</v>
+      </c>
+      <c r="BG81">
+        <v>1.19</v>
+      </c>
+      <c r="BH81">
+        <v>3.62</v>
+      </c>
+      <c r="BI81">
+        <v>1.4</v>
+      </c>
+      <c r="BJ81">
+        <v>2.56</v>
+      </c>
+      <c r="BK81">
+        <v>2.38</v>
+      </c>
+      <c r="BL81">
+        <v>1.9</v>
+      </c>
+      <c r="BM81">
+        <v>2.15</v>
+      </c>
+      <c r="BN81">
+        <v>1.56</v>
+      </c>
+      <c r="BO81">
+        <v>2.82</v>
+      </c>
+      <c r="BP81">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -17329,13 +17329,13 @@
         <v>5</v>
       </c>
       <c r="AW80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX80">
         <v>4</v>
       </c>
       <c r="AY80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>['2', '32', '56']</t>
+  </si>
+  <si>
+    <t>['67', '82']</t>
   </si>
   <si>
     <t>['8', '61']</t>
@@ -903,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1780,7 +1783,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1986,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2604,7 +2607,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2810,7 +2813,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3428,7 +3431,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3506,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3634,7 +3637,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3840,7 +3843,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4664,7 +4667,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4870,7 +4873,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5076,7 +5079,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5282,7 +5285,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5488,7 +5491,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5566,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6106,7 +6109,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6312,7 +6315,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6518,7 +6521,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6724,7 +6727,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7548,7 +7551,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7626,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7754,7 +7757,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7960,7 +7963,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8784,7 +8787,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9196,7 +9199,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9402,7 +9405,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9892,7 +9895,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10020,7 +10023,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10432,7 +10435,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10638,7 +10641,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10844,7 +10847,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11050,7 +11053,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11128,7 +11131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11462,7 +11465,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11540,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>0.88</v>
@@ -11668,7 +11671,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11874,7 +11877,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12080,7 +12083,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12492,7 +12495,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12698,7 +12701,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13110,7 +13113,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13522,7 +13525,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13728,7 +13731,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13934,7 +13937,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14140,7 +14143,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14218,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14346,7 +14349,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14552,7 +14555,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14758,7 +14761,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15170,7 +15173,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15582,7 +15585,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15788,7 +15791,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15866,7 +15869,7 @@
         <v>1.57</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16200,7 +16203,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17230,7 +17233,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17593,6 +17596,212 @@
       </c>
       <c r="BP81">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7451049</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45639.58333333334</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>135</v>
+      </c>
+      <c r="P82" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q82">
+        <v>2.38</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>4.5</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>2.85</v>
+      </c>
+      <c r="W82">
+        <v>1.37</v>
+      </c>
+      <c r="X82">
+        <v>6.95</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>1.75</v>
+      </c>
+      <c r="AA82">
+        <v>3.75</v>
+      </c>
+      <c r="AB82">
+        <v>4.1</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>9</v>
+      </c>
+      <c r="AE82">
+        <v>1.3</v>
+      </c>
+      <c r="AF82">
+        <v>3.3</v>
+      </c>
+      <c r="AG82">
+        <v>1.73</v>
+      </c>
+      <c r="AH82">
+        <v>2.08</v>
+      </c>
+      <c r="AI82">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82">
+        <v>2.1</v>
+      </c>
+      <c r="AK82">
+        <v>1.15</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>2.05</v>
+      </c>
+      <c r="AN82">
+        <v>1.25</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1.44</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>1.53</v>
+      </c>
+      <c r="AS82">
+        <v>0.95</v>
+      </c>
+      <c r="AT82">
+        <v>2.48</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>8</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+      <c r="AY82">
+        <v>23</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.5</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.45</v>
+      </c>
+      <c r="BG82">
+        <v>1.4</v>
+      </c>
+      <c r="BH82">
+        <v>2.82</v>
+      </c>
+      <c r="BI82">
+        <v>1.68</v>
+      </c>
+      <c r="BJ82">
+        <v>2.12</v>
+      </c>
+      <c r="BK82">
+        <v>2.11</v>
+      </c>
+      <c r="BL82">
+        <v>1.68</v>
+      </c>
+      <c r="BM82">
+        <v>2.75</v>
+      </c>
+      <c r="BN82">
+        <v>1.42</v>
+      </c>
+      <c r="BO82">
+        <v>3.55</v>
+      </c>
+      <c r="BP82">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,12 @@
     <t>['67', '82']</t>
   </si>
   <si>
+    <t>['14', '36', '45']</t>
+  </si>
+  <si>
+    <t>['7', '58', '85']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -545,6 +551,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['20', '29', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1864,7 +1873,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1989,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2479,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2607,7 +2616,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2685,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -2813,7 +2822,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2894,7 +2903,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>3.14</v>
@@ -3306,7 +3315,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
         <v>2.03</v>
@@ -3431,7 +3440,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3637,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3843,7 +3852,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4333,10 +4342,10 @@
         <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>1.8</v>
@@ -4667,7 +4676,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4873,7 +4882,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4951,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5079,7 +5088,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5285,7 +5294,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5366,7 +5375,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5491,7 +5500,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5981,7 +5990,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6109,7 +6118,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6190,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.71</v>
@@ -6315,7 +6324,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6521,7 +6530,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6599,7 +6608,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6727,7 +6736,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7551,7 +7560,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7632,7 +7641,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -7757,7 +7766,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7963,7 +7972,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8041,7 +8050,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8250,7 +8259,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -8787,7 +8796,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9199,7 +9208,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9405,7 +9414,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9483,7 +9492,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42">
         <v>1.38</v>
@@ -9689,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -10023,7 +10032,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10104,7 +10113,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.19</v>
@@ -10310,7 +10319,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10435,7 +10444,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10513,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -10641,7 +10650,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10847,7 +10856,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -10925,10 +10934,10 @@
         <v>1.75</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11053,7 +11062,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11465,7 +11474,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11546,7 +11555,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11671,7 +11680,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11877,7 +11886,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12083,7 +12092,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12495,7 +12504,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12576,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.11</v>
@@ -12701,7 +12710,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12779,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13113,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13191,7 +13200,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13525,7 +13534,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13731,7 +13740,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13812,7 +13821,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.18</v>
@@ -13937,7 +13946,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14143,7 +14152,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14349,7 +14358,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14555,7 +14564,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14633,7 +14642,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -14761,7 +14770,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15173,7 +15182,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15585,7 +15594,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15666,7 +15675,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.34</v>
@@ -15791,7 +15800,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16203,7 +16212,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16281,7 +16290,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16490,7 +16499,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.66</v>
@@ -16899,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17233,7 +17242,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17645,7 +17654,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17802,6 +17811,418 @@
       </c>
       <c r="BP82">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7451048</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>136</v>
+      </c>
+      <c r="P83" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.12</v>
+      </c>
+      <c r="V83">
+        <v>2.67</v>
+      </c>
+      <c r="W83">
+        <v>1.43</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.1</v>
+      </c>
+      <c r="Z83">
+        <v>6</v>
+      </c>
+      <c r="AA83">
+        <v>4</v>
+      </c>
+      <c r="AB83">
+        <v>1.53</v>
+      </c>
+      <c r="AC83">
+        <v>1.02</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4</v>
+      </c>
+      <c r="AG83">
+        <v>1.73</v>
+      </c>
+      <c r="AH83">
+        <v>2.08</v>
+      </c>
+      <c r="AI83">
+        <v>1.83</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>2.22</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.17</v>
+      </c>
+      <c r="AN83">
+        <v>0.63</v>
+      </c>
+      <c r="AO83">
+        <v>1.5</v>
+      </c>
+      <c r="AP83">
+        <v>0.89</v>
+      </c>
+      <c r="AQ83">
+        <v>1.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.51</v>
+      </c>
+      <c r="AS83">
+        <v>1.59</v>
+      </c>
+      <c r="AT83">
+        <v>3.1</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>10</v>
+      </c>
+      <c r="AW83">
+        <v>1</v>
+      </c>
+      <c r="AX83">
+        <v>10</v>
+      </c>
+      <c r="AY83">
+        <v>9</v>
+      </c>
+      <c r="AZ83">
+        <v>23</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>11</v>
+      </c>
+      <c r="BC83">
+        <v>16</v>
+      </c>
+      <c r="BD83">
+        <v>2.81</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>1.64</v>
+      </c>
+      <c r="BG83">
+        <v>1.28</v>
+      </c>
+      <c r="BH83">
+        <v>3.08</v>
+      </c>
+      <c r="BI83">
+        <v>1.53</v>
+      </c>
+      <c r="BJ83">
+        <v>2.41</v>
+      </c>
+      <c r="BK83">
+        <v>1.92</v>
+      </c>
+      <c r="BL83">
+        <v>1.88</v>
+      </c>
+      <c r="BM83">
+        <v>2.38</v>
+      </c>
+      <c r="BN83">
+        <v>1.54</v>
+      </c>
+      <c r="BO83">
+        <v>3.42</v>
+      </c>
+      <c r="BP83">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7451046</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45640.5625</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>137</v>
+      </c>
+      <c r="P84" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q84">
+        <v>2.2</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>6.5</v>
+      </c>
+      <c r="T84">
+        <v>1.43</v>
+      </c>
+      <c r="U84">
+        <v>2.72</v>
+      </c>
+      <c r="V84">
+        <v>3.2</v>
+      </c>
+      <c r="W84">
+        <v>1.32</v>
+      </c>
+      <c r="X84">
+        <v>8.1</v>
+      </c>
+      <c r="Y84">
+        <v>1.06</v>
+      </c>
+      <c r="Z84">
+        <v>1.55</v>
+      </c>
+      <c r="AA84">
+        <v>3.7</v>
+      </c>
+      <c r="AB84">
+        <v>6</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.33</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+      <c r="AG84">
+        <v>2.2</v>
+      </c>
+      <c r="AH84">
+        <v>1.65</v>
+      </c>
+      <c r="AI84">
+        <v>2.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.57</v>
+      </c>
+      <c r="AK84">
+        <v>1.17</v>
+      </c>
+      <c r="AL84">
+        <v>1.27</v>
+      </c>
+      <c r="AM84">
+        <v>2.15</v>
+      </c>
+      <c r="AN84">
+        <v>1.13</v>
+      </c>
+      <c r="AO84">
+        <v>0.88</v>
+      </c>
+      <c r="AP84">
+        <v>1.11</v>
+      </c>
+      <c r="AQ84">
+        <v>0.89</v>
+      </c>
+      <c r="AR84">
+        <v>1.2</v>
+      </c>
+      <c r="AS84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT84">
+        <v>2.14</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>2</v>
+      </c>
+      <c r="AY84">
+        <v>12</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>5</v>
+      </c>
+      <c r="BD84">
+        <v>1.47</v>
+      </c>
+      <c r="BE84">
+        <v>7.3</v>
+      </c>
+      <c r="BF84">
+        <v>3.66</v>
+      </c>
+      <c r="BG84">
+        <v>1.4</v>
+      </c>
+      <c r="BH84">
+        <v>2.82</v>
+      </c>
+      <c r="BI84">
+        <v>1.68</v>
+      </c>
+      <c r="BJ84">
+        <v>2.12</v>
+      </c>
+      <c r="BK84">
+        <v>2.11</v>
+      </c>
+      <c r="BL84">
+        <v>1.68</v>
+      </c>
+      <c r="BM84">
+        <v>2.75</v>
+      </c>
+      <c r="BN84">
+        <v>1.42</v>
+      </c>
+      <c r="BO84">
+        <v>4.5</v>
+      </c>
+      <c r="BP84">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['7', '58', '85']</t>
   </si>
   <si>
+    <t>['7', '36']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -554,6 +557,9 @@
   </si>
   <si>
     <t>['20', '29', '90+5']</t>
+  </si>
+  <si>
+    <t>['12', '46']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1998,7 +2004,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2076,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2616,7 +2622,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2822,7 +2828,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3106,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3440,7 +3446,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3646,7 +3652,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3724,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3852,7 +3858,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3933,7 +3939,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0.6899999999999999</v>
@@ -4548,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.88</v>
@@ -4676,7 +4682,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4882,7 +4888,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5088,7 +5094,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5169,7 +5175,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR21">
         <v>2.05</v>
@@ -5294,7 +5300,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5500,7 +5506,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -5784,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.41</v>
@@ -6118,7 +6124,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6324,7 +6330,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6530,7 +6536,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6736,7 +6742,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6817,7 +6823,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR29">
         <v>1.12</v>
@@ -7432,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7560,7 +7566,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7766,7 +7772,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7844,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7972,7 +7978,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8053,7 +8059,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.65</v>
@@ -8796,7 +8802,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9208,7 +9214,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9414,7 +9420,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9495,7 +9501,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9907,7 +9913,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10032,7 +10038,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10110,7 +10116,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -10316,7 +10322,7 @@
         <v>1.2</v>
       </c>
       <c r="AP46">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ46">
         <v>0.89</v>
@@ -10444,7 +10450,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10525,7 +10531,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR47">
         <v>1.56</v>
@@ -10650,7 +10656,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10731,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -10856,7 +10862,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11062,7 +11068,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11346,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -11474,7 +11480,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11680,7 +11686,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11758,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11886,7 +11892,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12092,7 +12098,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12173,7 +12179,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.97</v>
@@ -12504,7 +12510,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12710,7 +12716,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13122,7 +13128,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13203,7 +13209,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR60">
         <v>1.28</v>
@@ -13406,7 +13412,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.25</v>
@@ -13534,7 +13540,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13740,7 +13746,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13946,7 +13952,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14024,7 +14030,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14152,7 +14158,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14358,7 +14364,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14439,7 +14445,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>1.64</v>
@@ -14564,7 +14570,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14770,7 +14776,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14848,7 +14854,7 @@
         <v>1.17</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15057,7 +15063,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.96</v>
@@ -15182,7 +15188,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15594,7 +15600,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15672,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0.89</v>
@@ -15800,7 +15806,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15881,7 +15887,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16212,7 +16218,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16496,7 +16502,7 @@
         <v>1.71</v>
       </c>
       <c r="AP76">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -17242,7 +17248,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17323,7 +17329,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17654,7 +17660,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17860,7 +17866,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18066,7 +18072,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18165,13 +18171,13 @@
         <v>7</v>
       </c>
       <c r="AW84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX84">
         <v>2</v>
       </c>
       <c r="AY84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ84">
         <v>14</v>
@@ -18223,6 +18229,418 @@
       </c>
       <c r="BP84">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7451047</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q85">
+        <v>3.4</v>
+      </c>
+      <c r="R85">
+        <v>2.05</v>
+      </c>
+      <c r="S85">
+        <v>3.4</v>
+      </c>
+      <c r="T85">
+        <v>1.4</v>
+      </c>
+      <c r="U85">
+        <v>2.8</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>1.36</v>
+      </c>
+      <c r="X85">
+        <v>8.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.08</v>
+      </c>
+      <c r="Z85">
+        <v>2.63</v>
+      </c>
+      <c r="AA85">
+        <v>3.1</v>
+      </c>
+      <c r="AB85">
+        <v>2.7</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>8</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>3.2</v>
+      </c>
+      <c r="AG85">
+        <v>2.15</v>
+      </c>
+      <c r="AH85">
+        <v>1.67</v>
+      </c>
+      <c r="AI85">
+        <v>1.83</v>
+      </c>
+      <c r="AJ85">
+        <v>1.83</v>
+      </c>
+      <c r="AK85">
+        <v>1.53</v>
+      </c>
+      <c r="AL85">
+        <v>1.35</v>
+      </c>
+      <c r="AM85">
+        <v>1.44</v>
+      </c>
+      <c r="AN85">
+        <v>2.13</v>
+      </c>
+      <c r="AO85">
+        <v>1.38</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>1.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.38</v>
+      </c>
+      <c r="AS85">
+        <v>1.41</v>
+      </c>
+      <c r="AT85">
+        <v>2.79</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>7</v>
+      </c>
+      <c r="BA85">
+        <v>10</v>
+      </c>
+      <c r="BB85">
+        <v>3</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>2.15</v>
+      </c>
+      <c r="BE85">
+        <v>7.1</v>
+      </c>
+      <c r="BF85">
+        <v>2.03</v>
+      </c>
+      <c r="BG85">
+        <v>1.4</v>
+      </c>
+      <c r="BH85">
+        <v>2.82</v>
+      </c>
+      <c r="BI85">
+        <v>1.68</v>
+      </c>
+      <c r="BJ85">
+        <v>2.12</v>
+      </c>
+      <c r="BK85">
+        <v>2.11</v>
+      </c>
+      <c r="BL85">
+        <v>1.68</v>
+      </c>
+      <c r="BM85">
+        <v>2.75</v>
+      </c>
+      <c r="BN85">
+        <v>1.42</v>
+      </c>
+      <c r="BO85">
+        <v>4.35</v>
+      </c>
+      <c r="BP85">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7451050</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45641.57291666666</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q86">
+        <v>3.1</v>
+      </c>
+      <c r="R86">
+        <v>1.91</v>
+      </c>
+      <c r="S86">
+        <v>4.33</v>
+      </c>
+      <c r="T86">
+        <v>1.5</v>
+      </c>
+      <c r="U86">
+        <v>2.5</v>
+      </c>
+      <c r="V86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
+        <v>1.29</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>2.25</v>
+      </c>
+      <c r="AA86">
+        <v>2.75</v>
+      </c>
+      <c r="AB86">
+        <v>3.7</v>
+      </c>
+      <c r="AC86">
+        <v>1.06</v>
+      </c>
+      <c r="AD86">
+        <v>7.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.42</v>
+      </c>
+      <c r="AF86">
+        <v>2.7</v>
+      </c>
+      <c r="AG86">
+        <v>2.6</v>
+      </c>
+      <c r="AH86">
+        <v>1.48</v>
+      </c>
+      <c r="AI86">
+        <v>2.1</v>
+      </c>
+      <c r="AJ86">
+        <v>1.67</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.3</v>
+      </c>
+      <c r="AM86">
+        <v>1.72</v>
+      </c>
+      <c r="AN86">
+        <v>2.75</v>
+      </c>
+      <c r="AO86">
+        <v>2</v>
+      </c>
+      <c r="AP86">
+        <v>2.56</v>
+      </c>
+      <c r="AQ86">
+        <v>1.89</v>
+      </c>
+      <c r="AR86">
+        <v>1.59</v>
+      </c>
+      <c r="AS86">
+        <v>1.33</v>
+      </c>
+      <c r="AT86">
+        <v>2.92</v>
+      </c>
+      <c r="AU86">
+        <v>4</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>11</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.64</v>
+      </c>
+      <c r="BE86">
+        <v>7.6</v>
+      </c>
+      <c r="BF86">
+        <v>2.86</v>
+      </c>
+      <c r="BG86">
+        <v>1.44</v>
+      </c>
+      <c r="BH86">
+        <v>2.67</v>
+      </c>
+      <c r="BI86">
+        <v>1.74</v>
+      </c>
+      <c r="BJ86">
+        <v>2.02</v>
+      </c>
+      <c r="BK86">
+        <v>2.22</v>
+      </c>
+      <c r="BL86">
+        <v>1.62</v>
+      </c>
+      <c r="BM86">
+        <v>2.92</v>
+      </c>
+      <c r="BN86">
+        <v>1.38</v>
+      </c>
+      <c r="BO86">
+        <v>4.35</v>
+      </c>
+      <c r="BP86">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['7', '36']</t>
   </si>
   <si>
+    <t>['64', '67']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['12', '46']</t>
+  </si>
+  <si>
+    <t>['37', '60']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1804,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1876,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ5">
         <v>0.89</v>
@@ -2004,7 +2010,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2622,7 +2628,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2828,7 +2834,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2906,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3446,7 +3452,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3652,7 +3658,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3858,7 +3864,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4682,7 +4688,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4888,7 +4894,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5094,7 +5100,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5172,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1.89</v>
@@ -5300,7 +5306,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5506,7 +5512,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6124,7 +6130,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6330,7 +6336,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6536,7 +6542,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6742,7 +6748,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7026,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7566,7 +7572,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7772,7 +7778,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7978,7 +7984,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8802,7 +8808,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8880,7 +8886,7 @@
         <v>1.25</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9214,7 +9220,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9420,7 +9426,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10038,7 +10044,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10450,7 +10456,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10656,7 +10662,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10862,7 +10868,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11068,7 +11074,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11480,7 +11486,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11686,7 +11692,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11892,7 +11898,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12098,7 +12104,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12510,7 +12516,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12716,7 +12722,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13000,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13128,7 +13134,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13540,7 +13546,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13746,7 +13752,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13952,7 +13958,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14158,7 +14164,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14364,7 +14370,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14570,7 +14576,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14776,7 +14782,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15188,7 +15194,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15266,7 +15272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -15600,7 +15606,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15806,7 +15812,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16218,7 +16224,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17248,7 +17254,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17532,7 +17538,7 @@
         <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17660,7 +17666,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17866,7 +17872,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18072,7 +18078,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18484,7 +18490,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18641,6 +18647,212 @@
       </c>
       <c r="BP86">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7451055</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45646.58333333334</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q87">
+        <v>2.25</v>
+      </c>
+      <c r="R87">
+        <v>2.2</v>
+      </c>
+      <c r="S87">
+        <v>5.5</v>
+      </c>
+      <c r="T87">
+        <v>1.35</v>
+      </c>
+      <c r="U87">
+        <v>3.06</v>
+      </c>
+      <c r="V87">
+        <v>2.79</v>
+      </c>
+      <c r="W87">
+        <v>1.41</v>
+      </c>
+      <c r="X87">
+        <v>7.3</v>
+      </c>
+      <c r="Y87">
+        <v>1.07</v>
+      </c>
+      <c r="Z87">
+        <v>1.6</v>
+      </c>
+      <c r="AA87">
+        <v>3.75</v>
+      </c>
+      <c r="AB87">
+        <v>5.25</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>10</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>3.8</v>
+      </c>
+      <c r="AG87">
+        <v>2</v>
+      </c>
+      <c r="AH87">
+        <v>1.8</v>
+      </c>
+      <c r="AI87">
+        <v>1.91</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.15</v>
+      </c>
+      <c r="AL87">
+        <v>1.24</v>
+      </c>
+      <c r="AM87">
+        <v>2.2</v>
+      </c>
+      <c r="AN87">
+        <v>1.63</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>1.56</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.57</v>
+      </c>
+      <c r="AS87">
+        <v>1.04</v>
+      </c>
+      <c r="AT87">
+        <v>2.61</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>8</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>17</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.34</v>
+      </c>
+      <c r="BE87">
+        <v>6.8</v>
+      </c>
+      <c r="BF87">
+        <v>4.3</v>
+      </c>
+      <c r="BG87">
+        <v>1.32</v>
+      </c>
+      <c r="BH87">
+        <v>3</v>
+      </c>
+      <c r="BI87">
+        <v>1.6</v>
+      </c>
+      <c r="BJ87">
+        <v>2.15</v>
+      </c>
+      <c r="BK87">
+        <v>2.05</v>
+      </c>
+      <c r="BL87">
+        <v>1.65</v>
+      </c>
+      <c r="BM87">
+        <v>2.85</v>
+      </c>
+      <c r="BN87">
+        <v>1.36</v>
+      </c>
+      <c r="BO87">
+        <v>4</v>
+      </c>
+      <c r="BP87">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,9 @@
     <t>['64', '67']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
   </si>
   <si>
     <t>['37', '60']</t>
+  </si>
+  <si>
+    <t>['11', '80', '83', '88']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1679,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1804,7 +1810,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2010,7 +2016,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2628,7 +2634,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2834,7 +2840,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3452,7 +3458,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3533,7 +3539,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3658,7 +3664,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3864,7 +3870,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3942,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4688,7 +4694,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4894,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5100,7 +5106,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5306,7 +5312,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5384,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.89</v>
@@ -5512,7 +5518,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6130,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6336,7 +6342,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6542,7 +6548,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6623,7 +6629,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
         <v>1.45</v>
@@ -6748,7 +6754,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -6826,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1.89</v>
@@ -7572,7 +7578,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7778,7 +7784,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7984,7 +7990,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8683,7 +8689,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.94</v>
@@ -8808,7 +8814,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9220,7 +9226,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9298,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.88</v>
@@ -9426,7 +9432,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10044,7 +10050,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10456,7 +10462,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10662,7 +10668,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10868,7 +10874,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11074,7 +11080,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11486,7 +11492,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11692,7 +11698,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11773,7 +11779,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -11898,7 +11904,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -12104,7 +12110,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12388,7 +12394,7 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12516,7 +12522,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12722,7 +12728,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -13134,7 +13140,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13546,7 +13552,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13627,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>0.93</v>
@@ -13752,7 +13758,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13830,7 +13836,7 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -13958,7 +13964,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14164,7 +14170,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14370,7 +14376,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14576,7 +14582,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14782,7 +14788,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -14863,7 +14869,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.39</v>
@@ -15194,7 +15200,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15606,7 +15612,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15812,7 +15818,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16224,7 +16230,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -17126,7 +17132,7 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -17254,7 +17260,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17541,7 +17547,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17666,7 +17672,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17872,7 +17878,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18078,7 +18084,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18490,7 +18496,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18696,7 +18702,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -18853,6 +18859,212 @@
       </c>
       <c r="BP87">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7451053</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P88" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.88</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.82</v>
+      </c>
+      <c r="V88">
+        <v>3.04</v>
+      </c>
+      <c r="W88">
+        <v>1.35</v>
+      </c>
+      <c r="X88">
+        <v>7.8</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>3.1</v>
+      </c>
+      <c r="AA88">
+        <v>3.25</v>
+      </c>
+      <c r="AB88">
+        <v>2.15</v>
+      </c>
+      <c r="AC88">
+        <v>1.05</v>
+      </c>
+      <c r="AD88">
+        <v>8</v>
+      </c>
+      <c r="AE88">
+        <v>1.29</v>
+      </c>
+      <c r="AF88">
+        <v>3.3</v>
+      </c>
+      <c r="AG88">
+        <v>1.95</v>
+      </c>
+      <c r="AH88">
+        <v>1.85</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.62</v>
+      </c>
+      <c r="AL88">
+        <v>1.31</v>
+      </c>
+      <c r="AM88">
+        <v>1.33</v>
+      </c>
+      <c r="AN88">
+        <v>1.88</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.67</v>
+      </c>
+      <c r="AQ88">
+        <v>1.22</v>
+      </c>
+      <c r="AR88">
+        <v>1.12</v>
+      </c>
+      <c r="AS88">
+        <v>1.56</v>
+      </c>
+      <c r="AT88">
+        <v>2.68</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>10</v>
+      </c>
+      <c r="AX88">
+        <v>1</v>
+      </c>
+      <c r="AY88">
+        <v>17</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>3</v>
+      </c>
+      <c r="BB88">
+        <v>6</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>2.62</v>
+      </c>
+      <c r="BE88">
+        <v>6.55</v>
+      </c>
+      <c r="BF88">
+        <v>1.75</v>
+      </c>
+      <c r="BG88">
+        <v>1.28</v>
+      </c>
+      <c r="BH88">
+        <v>3.08</v>
+      </c>
+      <c r="BI88">
+        <v>1.54</v>
+      </c>
+      <c r="BJ88">
+        <v>2.25</v>
+      </c>
+      <c r="BK88">
+        <v>1.95</v>
+      </c>
+      <c r="BL88">
+        <v>1.76</v>
+      </c>
+      <c r="BM88">
+        <v>2.54</v>
+      </c>
+      <c r="BN88">
+        <v>1.43</v>
+      </c>
+      <c r="BO88">
+        <v>3.42</v>
+      </c>
+      <c r="BP88">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,15 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['9', '26', '74']</t>
+  </si>
+  <si>
+    <t>['60', '75']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['8', '61']</t>
   </si>
   <si>
@@ -491,9 +500,6 @@
   </si>
   <si>
     <t>['5']</t>
-  </si>
-  <si>
-    <t>['89']</t>
   </si>
   <si>
     <t>['88']</t>
@@ -571,7 +577,13 @@
     <t>['37', '60']</t>
   </si>
   <si>
-    <t>['11', '80', '83', '88']</t>
+    <t>['11', '80', '82', '88']</t>
+  </si>
+  <si>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['75', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1479,7 +1491,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1682,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4">
         <v>1.22</v>
@@ -1810,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2016,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>1.62</v>
@@ -2097,7 +2109,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2300,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2634,7 +2646,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2715,7 +2727,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2840,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3330,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>0.89</v>
@@ -3458,7 +3470,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3664,7 +3676,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3745,7 +3757,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR14">
         <v>1.27</v>
@@ -3870,7 +3882,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4154,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4569,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR18">
         <v>0.8100000000000001</v>
@@ -4694,7 +4706,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>1.62</v>
@@ -4772,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4900,7 +4912,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4981,7 +4993,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>1.92</v>
@@ -5106,7 +5118,7 @@
         <v>81</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5312,7 +5324,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5518,7 +5530,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3.6</v>
@@ -6011,7 +6023,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>1.8</v>
@@ -6136,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6214,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6342,7 +6354,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.2</v>
@@ -6420,10 +6432,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6548,7 +6560,7 @@
         <v>81</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6754,7 +6766,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>6.5</v>
@@ -7041,7 +7053,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.82</v>
@@ -7244,10 +7256,10 @@
         <v>1.33</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR31">
         <v>1.34</v>
@@ -7578,7 +7590,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>9</v>
@@ -7784,7 +7796,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>1.73</v>
@@ -7990,7 +8002,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.5</v>
@@ -8274,7 +8286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
         <v>0.89</v>
@@ -8480,7 +8492,7 @@
         <v>0.75</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8686,7 +8698,7 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>1.22</v>
@@ -8814,7 +8826,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -8895,7 +8907,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR39">
         <v>1.73</v>
@@ -9098,10 +9110,10 @@
         <v>1.67</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9226,7 +9238,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9307,7 +9319,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -9432,7 +9444,7 @@
         <v>108</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -10050,7 +10062,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10462,7 +10474,7 @@
         <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>4.5</v>
@@ -10668,7 +10680,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>4.5</v>
@@ -10746,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -10874,7 +10886,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11080,7 +11092,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>5.5</v>
@@ -11161,7 +11173,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR50">
         <v>1.52</v>
@@ -11492,7 +11504,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.3</v>
@@ -11698,7 +11710,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11904,7 +11916,7 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.1</v>
@@ -11982,10 +11994,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12110,7 +12122,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>1.8</v>
@@ -12188,7 +12200,7 @@
         <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>1.33</v>
@@ -12522,7 +12534,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>8.5</v>
@@ -12600,7 +12612,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12728,7 +12740,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.6</v>
@@ -12809,7 +12821,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13140,7 +13152,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>5</v>
@@ -13427,7 +13439,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR61">
         <v>1.34</v>
@@ -13552,7 +13564,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13630,7 +13642,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -13758,7 +13770,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>9.5</v>
@@ -13964,7 +13976,7 @@
         <v>118</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>1.91</v>
@@ -14170,7 +14182,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q65">
         <v>3.1</v>
@@ -14251,7 +14263,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14376,7 +14388,7 @@
         <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14454,7 +14466,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -14582,7 +14594,7 @@
         <v>124</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.75</v>
@@ -14663,7 +14675,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR67">
         <v>1.18</v>
@@ -14788,7 +14800,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15072,7 +15084,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
         <v>1.89</v>
@@ -15200,7 +15212,7 @@
         <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15281,7 +15293,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15484,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15612,7 +15624,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15818,7 +15830,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16102,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ74">
         <v>0</v>
@@ -16230,7 +16242,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>2.6</v>
@@ -16720,10 +16732,10 @@
         <v>0.86</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.79</v>
@@ -16929,7 +16941,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR78">
         <v>1.18</v>
@@ -17135,7 +17147,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR79">
         <v>1.09</v>
@@ -17260,7 +17272,7 @@
         <v>81</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -17338,7 +17350,7 @@
         <v>1.86</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ80">
         <v>1.89</v>
@@ -17672,7 +17684,7 @@
         <v>135</v>
       </c>
       <c r="P82" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q82">
         <v>2.38</v>
@@ -17878,7 +17890,7 @@
         <v>136</v>
       </c>
       <c r="P83" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -18084,7 +18096,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18496,7 +18508,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18702,7 +18714,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>2.25</v>
@@ -18908,7 +18920,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19013,7 +19025,7 @@
         <v>1</v>
       </c>
       <c r="AY88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ88">
         <v>14</v>
@@ -19065,6 +19077,624 @@
       </c>
       <c r="BP88">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7451054</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45648.375</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>141</v>
+      </c>
+      <c r="P89" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q89">
+        <v>1.91</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>8</v>
+      </c>
+      <c r="T89">
+        <v>1.35</v>
+      </c>
+      <c r="U89">
+        <v>3.04</v>
+      </c>
+      <c r="V89">
+        <v>2.81</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>6.4</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.36</v>
+      </c>
+      <c r="AA89">
+        <v>4.33</v>
+      </c>
+      <c r="AB89">
+        <v>8</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.22</v>
+      </c>
+      <c r="AF89">
+        <v>3.8</v>
+      </c>
+      <c r="AG89">
+        <v>1.85</v>
+      </c>
+      <c r="AH89">
+        <v>1.95</v>
+      </c>
+      <c r="AI89">
+        <v>2.2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.62</v>
+      </c>
+      <c r="AK89">
+        <v>1.06</v>
+      </c>
+      <c r="AL89">
+        <v>1.17</v>
+      </c>
+      <c r="AM89">
+        <v>2.95</v>
+      </c>
+      <c r="AN89">
+        <v>1.75</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
+        <v>1.89</v>
+      </c>
+      <c r="AQ89">
+        <v>0.89</v>
+      </c>
+      <c r="AR89">
+        <v>1.93</v>
+      </c>
+      <c r="AS89">
+        <v>1.4</v>
+      </c>
+      <c r="AT89">
+        <v>3.33</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>17</v>
+      </c>
+      <c r="BA89">
+        <v>5</v>
+      </c>
+      <c r="BB89">
+        <v>4</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.2</v>
+      </c>
+      <c r="BE89">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF89">
+        <v>6.35</v>
+      </c>
+      <c r="BG89">
+        <v>1.36</v>
+      </c>
+      <c r="BH89">
+        <v>2.78</v>
+      </c>
+      <c r="BI89">
+        <v>1.68</v>
+      </c>
+      <c r="BJ89">
+        <v>2.06</v>
+      </c>
+      <c r="BK89">
+        <v>2.14</v>
+      </c>
+      <c r="BL89">
+        <v>1.6</v>
+      </c>
+      <c r="BM89">
+        <v>2.83</v>
+      </c>
+      <c r="BN89">
+        <v>1.33</v>
+      </c>
+      <c r="BO89">
+        <v>4</v>
+      </c>
+      <c r="BP89">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7451052</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F90">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>79</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>142</v>
+      </c>
+      <c r="P90" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q90">
+        <v>2.05</v>
+      </c>
+      <c r="R90">
+        <v>2.25</v>
+      </c>
+      <c r="S90">
+        <v>6.5</v>
+      </c>
+      <c r="T90">
+        <v>1.35</v>
+      </c>
+      <c r="U90">
+        <v>2.95</v>
+      </c>
+      <c r="V90">
+        <v>2.6</v>
+      </c>
+      <c r="W90">
+        <v>1.44</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.48</v>
+      </c>
+      <c r="AA90">
+        <v>3.8</v>
+      </c>
+      <c r="AB90">
+        <v>6.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE90">
+        <v>1.25</v>
+      </c>
+      <c r="AF90">
+        <v>3.75</v>
+      </c>
+      <c r="AG90">
+        <v>1.95</v>
+      </c>
+      <c r="AH90">
+        <v>1.85</v>
+      </c>
+      <c r="AI90">
+        <v>2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.73</v>
+      </c>
+      <c r="AK90">
+        <v>1.08</v>
+      </c>
+      <c r="AL90">
+        <v>1.16</v>
+      </c>
+      <c r="AM90">
+        <v>2.6</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>0.88</v>
+      </c>
+      <c r="AP90">
+        <v>2.11</v>
+      </c>
+      <c r="AQ90">
+        <v>0.78</v>
+      </c>
+      <c r="AR90">
+        <v>1.63</v>
+      </c>
+      <c r="AS90">
+        <v>1.5</v>
+      </c>
+      <c r="AT90">
+        <v>3.13</v>
+      </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
+      <c r="AV90">
+        <v>2</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>17</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>10</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>1.27</v>
+      </c>
+      <c r="BE90">
+        <v>8.1</v>
+      </c>
+      <c r="BF90">
+        <v>5.15</v>
+      </c>
+      <c r="BG90">
+        <v>1.36</v>
+      </c>
+      <c r="BH90">
+        <v>2.79</v>
+      </c>
+      <c r="BI90">
+        <v>1.67</v>
+      </c>
+      <c r="BJ90">
+        <v>2.08</v>
+      </c>
+      <c r="BK90">
+        <v>2.38</v>
+      </c>
+      <c r="BL90">
+        <v>1.62</v>
+      </c>
+      <c r="BM90">
+        <v>2.78</v>
+      </c>
+      <c r="BN90">
+        <v>1.34</v>
+      </c>
+      <c r="BO90">
+        <v>3.35</v>
+      </c>
+      <c r="BP90">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7451051</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45648.5625</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>143</v>
+      </c>
+      <c r="P91" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.1</v>
+      </c>
+      <c r="T91">
+        <v>1.39</v>
+      </c>
+      <c r="U91">
+        <v>2.8</v>
+      </c>
+      <c r="V91">
+        <v>2.8</v>
+      </c>
+      <c r="W91">
+        <v>1.39</v>
+      </c>
+      <c r="X91">
+        <v>6.95</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>7</v>
+      </c>
+      <c r="AA91">
+        <v>3.6</v>
+      </c>
+      <c r="AB91">
+        <v>1.48</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>8.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.3</v>
+      </c>
+      <c r="AG91">
+        <v>2.1</v>
+      </c>
+      <c r="AH91">
+        <v>1.7</v>
+      </c>
+      <c r="AI91">
+        <v>2.2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.62</v>
+      </c>
+      <c r="AK91">
+        <v>3</v>
+      </c>
+      <c r="AL91">
+        <v>1.15</v>
+      </c>
+      <c r="AM91">
+        <v>1.03</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>1.25</v>
+      </c>
+      <c r="AP91">
+        <v>0.89</v>
+      </c>
+      <c r="AQ91">
+        <v>1.44</v>
+      </c>
+      <c r="AR91">
+        <v>1.08</v>
+      </c>
+      <c r="AS91">
+        <v>1.42</v>
+      </c>
+      <c r="AT91">
+        <v>2.5</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>7</v>
+      </c>
+      <c r="AY91">
+        <v>13</v>
+      </c>
+      <c r="AZ91">
+        <v>17</v>
+      </c>
+      <c r="BA91">
+        <v>4</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>4.66</v>
+      </c>
+      <c r="BE91">
+        <v>8.1</v>
+      </c>
+      <c r="BF91">
+        <v>1.33</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.35</v>
+      </c>
+      <c r="BI91">
+        <v>1.53</v>
+      </c>
+      <c r="BJ91">
+        <v>2.41</v>
+      </c>
+      <c r="BK91">
+        <v>1.87</v>
+      </c>
+      <c r="BL91">
+        <v>1.87</v>
+      </c>
+      <c r="BM91">
+        <v>2.38</v>
+      </c>
+      <c r="BN91">
+        <v>1.54</v>
+      </c>
+      <c r="BO91">
+        <v>3.2</v>
+      </c>
+      <c r="BP91">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
